--- a/项目进度文档/sprint2.xlsx
+++ b/项目进度文档/sprint2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tank_fire\tank_fire\项目进度文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新建文件夹 (2)\GitHub\tank_fire\项目进度文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE69191-E7B3-4D52-B380-5DE65ECBC5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F1B679-61C5-4172-903F-8B507AF841AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5670" yWindow="2265" windowWidth="12593" windowHeight="9982" xr2:uid="{AE56C3D8-EE88-4E40-9BBA-1F45DF4D4F53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{AE56C3D8-EE88-4E40-9BBA-1F45DF4D4F53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -169,6 +169,14 @@
   </si>
   <si>
     <t>玩家交互设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务完成度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -215,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -238,19 +246,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -260,13 +357,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,637 +698,754 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FB2163-EE24-44F5-AE5C-8D44BF9DF8DA}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="5">
+      <c r="O1" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="5">
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="2">
         <f>SUM(N5:N81)</f>
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="6">
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4">
         <v>5</v>
       </c>
-      <c r="M5" s="6"/>
+      <c r="M5" s="4"/>
       <c r="N5" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="6">
+      <c r="O5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
         <v>10</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
         <v>10</v>
       </c>
-      <c r="M6" s="6"/>
+      <c r="M6" s="4"/>
       <c r="N6" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="O6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4">
         <v>10</v>
       </c>
-      <c r="M7" s="6"/>
+      <c r="M7" s="4"/>
       <c r="N7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="6">
+      <c r="O7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
         <v>10</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="6">
+      <c r="O8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
         <v>10</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="6">
+      <c r="O9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
         <v>5</v>
       </c>
-      <c r="M10" s="6"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="6">
+      <c r="O10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
         <v>9</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4">
         <v>4</v>
       </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="6">
+      <c r="O11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4">
         <v>10</v>
       </c>
-      <c r="M12" s="6"/>
+      <c r="M12" s="4"/>
       <c r="N12" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="6">
+      <c r="O12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
         <v>10</v>
       </c>
-      <c r="M13" s="6"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="6">
+      <c r="O13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>16</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
         <v>9</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4">
         <v>9</v>
       </c>
-      <c r="M14" s="6"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="6">
+      <c r="O14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>17</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
         <v>9</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="6">
+      <c r="O15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>18</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
         <v>10</v>
       </c>
-      <c r="M16" s="6"/>
+      <c r="M16" s="4"/>
       <c r="N16" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="6">
+      <c r="O16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>19</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
         <v>8</v>
       </c>
-      <c r="M17" s="6"/>
+      <c r="M17" s="4"/>
       <c r="N17" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="6">
+      <c r="O17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>22</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
         <v>7</v>
       </c>
-      <c r="M18" s="6"/>
+      <c r="M18" s="4"/>
       <c r="N18" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="6">
+      <c r="O18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>33</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
         <v>7</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
         <v>7</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="M19" s="4"/>
       <c r="N19" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="6">
+      <c r="O19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>39</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
         <v>10</v>
       </c>
-      <c r="M20" s="6"/>
+      <c r="M20" s="4"/>
       <c r="N20" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="6">
+      <c r="O20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>41</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
         <v>10</v>
       </c>
-      <c r="M21" s="6"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="6">
+      <c r="O21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>42</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
         <v>7</v>
       </c>
-      <c r="M22" s="6"/>
+      <c r="M22" s="4"/>
       <c r="N22" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="6">
+      <c r="O22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
         <v>43</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6">
-        <v>6</v>
-      </c>
-      <c r="M23" s="6"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4">
+        <v>6</v>
+      </c>
+      <c r="M23" s="4"/>
       <c r="N23" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="6">
+      <c r="O23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
         <v>44</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
         <v>3</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6">
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
         <v>4</v>
       </c>
-      <c r="M24" s="6"/>
+      <c r="M24" s="4"/>
       <c r="N24" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="6">
+      <c r="O24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
         <v>45</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4">
         <v>4</v>
       </c>
-      <c r="M25" s="6"/>
+      <c r="M25" s="4"/>
       <c r="N25" s="1">
         <v>6</v>
       </c>
+      <c r="O25" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:F4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:K4"/>
-    <mergeCell ref="L1:M4"/>
+  <mergeCells count="82">
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="C20:F23"/>
+    <mergeCell ref="C24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C11:F13"/>
+    <mergeCell ref="G11:G13"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
@@ -1230,62 +1462,15 @@
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C20:F23"/>
-    <mergeCell ref="C24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="C14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:F4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:K4"/>
+    <mergeCell ref="L1:M4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
